--- a/tests/testthat/test_data/6/noName.xlsx
+++ b/tests/testthat/test_data/6/noName.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DAC23A6-7EDD-DC41-8633-D3A8F26028FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4BF34-76A4-3F42-B457-1B45F0A36556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="noName" sheetId="1" r:id="rId1"/>
@@ -28,32 +28,32 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>A01</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>A02</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +184,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -530,8 +537,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,11 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,27 +921,27 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -952,24 +960,25 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/tests/testthat/test_data/6/noName.xlsx
+++ b/tests/testthat/test_data/6/noName.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham/Library/CloudStorage/OneDrive-UMassChanMedicalSchool/01_Personal/00_Important_main/02_R-projects/00_Packages/99_tidyplate/tidyplate/tests/testthat/test_data/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4BF34-76A4-3F42-B457-1B45F0A36556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC89D23-9ED2-C546-9349-D7338FF822A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,9 +599,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -639,7 +639,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -745,7 +745,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -887,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -895,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,6 +982,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
